--- a/ProvinceGDP2.xlsx
+++ b/ProvinceGDP2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="158" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="543" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="1" state="visible" r:id="rId2"/>
@@ -76,7 +76,7 @@
     <t>安徽</t>
   </si>
   <si>
-    <t>内蒙</t>
+    <t>内蒙古</t>
   </si>
   <si>
     <t>黑龙江</t>
@@ -229,10 +229,10 @@
     <t>中国大陆</t>
   </si>
   <si>
-    <t>内蒙古</t>
+    <t>城市</t>
   </si>
   <si>
-    <t>城市</t>
+    <t>内蒙</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -395,7 +395,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +574,7 @@
         <v>885166</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -706,7 +706,7 @@
         <v>418321</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -794,7 +794,7 @@
     <hyperlink ref="A13" r:id="rId12" display="福建"/>
     <hyperlink ref="A14" r:id="rId13" display="北京"/>
     <hyperlink ref="A15" r:id="rId14" display="安徽"/>
-    <hyperlink ref="A16" r:id="rId15" display="内蒙"/>
+    <hyperlink ref="A16" r:id="rId15" display="内蒙古"/>
     <hyperlink ref="A17" r:id="rId16" display="黑龙江"/>
     <hyperlink ref="A18" r:id="rId17" display="陕西"/>
     <hyperlink ref="A19" r:id="rId18" display="广西"/>
@@ -830,7 +830,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -838,7 +838,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>1006282</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>974025</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1237,7 +1237,7 @@
     <hyperlink ref="A13" r:id="rId12" display="福建"/>
     <hyperlink ref="A14" r:id="rId13" display="北京"/>
     <hyperlink ref="A15" r:id="rId14" display="安徽"/>
-    <hyperlink ref="A16" r:id="rId15" display="内蒙"/>
+    <hyperlink ref="A16" r:id="rId15" display="内蒙古"/>
     <hyperlink ref="A17" r:id="rId16" display="黑龙江"/>
     <hyperlink ref="A18" r:id="rId17" display="陕西"/>
     <hyperlink ref="A19" r:id="rId18" display="广西"/>
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -1281,7 +1281,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1235933</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1167200</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>543747</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1680,7 @@
     <hyperlink ref="A13" r:id="rId12" display="福建"/>
     <hyperlink ref="A14" r:id="rId13" display="北京"/>
     <hyperlink ref="A15" r:id="rId14" display="安徽"/>
-    <hyperlink ref="A16" r:id="rId15" display="内蒙"/>
+    <hyperlink ref="A16" r:id="rId15" display="内蒙古"/>
     <hyperlink ref="A17" r:id="rId16" display="黑龙江"/>
     <hyperlink ref="A18" r:id="rId17" display="陕西"/>
     <hyperlink ref="A19" r:id="rId18" display="广西"/>
@@ -1716,7 +1716,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="A16 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>15</v>
@@ -2532,8 +2532,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A16 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>15</v>
@@ -3351,7 +3351,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A16 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>15</v>
@@ -4168,7 +4168,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A16 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>15</v>
@@ -4985,7 +4985,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -5172,7 +5172,7 @@
         <v>2200560</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -5392,7 +5392,7 @@
     <hyperlink ref="A13" r:id="rId12" display="福建"/>
     <hyperlink ref="A14" r:id="rId13" display="北京"/>
     <hyperlink ref="A15" r:id="rId14" display="安徽"/>
-    <hyperlink ref="A16" r:id="rId15" display="内蒙"/>
+    <hyperlink ref="A16" r:id="rId15" display="内蒙古"/>
     <hyperlink ref="A17" r:id="rId16" display="黑龙江"/>
     <hyperlink ref="A18" r:id="rId17" display="陕西"/>
     <hyperlink ref="A19" r:id="rId18" display="广西"/>
@@ -5428,7 +5428,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A16 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -5438,7 +5438,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="n">
         <v>2010</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>11672</v>
